--- a/documentos/Pasta1.xlsx
+++ b/documentos/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\results\NAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E85C35E-C872-4D78-B7CF-0F9B9CB015E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98746700-7770-44EA-8B52-4196F8D9F568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03B5F2CE-E60E-489B-8C19-EF9787341301}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
   <si>
     <t>Trial</t>
   </si>
@@ -145,6 +145,36 @@
   </si>
   <si>
     <t>MEAN</t>
+  </si>
+  <si>
+    <t>FOLD 0 OC</t>
+  </si>
+  <si>
+    <t>FOLD 0 OD</t>
+  </si>
+  <si>
+    <t>FOLD 1 OC</t>
+  </si>
+  <si>
+    <t>FOLD 1 OD</t>
+  </si>
+  <si>
+    <t>FOLD 2 OC</t>
+  </si>
+  <si>
+    <t>FOLD 2 OD</t>
+  </si>
+  <si>
+    <t>FOLD 3 OC</t>
+  </si>
+  <si>
+    <t>FOLD 3 OD</t>
+  </si>
+  <si>
+    <t>FOLD 4 OC</t>
+  </si>
+  <si>
+    <t>FOLD 4 OD</t>
   </si>
 </sst>
 </file>
@@ -166,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,9 +228,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,15 +549,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7A2B5A-E376-49AC-A092-CBA2959D9F94}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,8 +639,38 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>141</v>
       </c>
@@ -659,7 +741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>164</v>
       </c>
@@ -730,7 +812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>226</v>
       </c>
@@ -801,7 +883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>156</v>
       </c>
@@ -872,71 +954,101 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.6</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.4</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="2">
         <v>3</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="2">
         <f t="shared" ref="Q6:R6" si="0">AVERAGE(Q2:Q5)</f>
         <v>4</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="2">
         <v>5</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>29</v>
+      <c r="U6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.873</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0.95740000000000003</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0.95489999999999997</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0.95209999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/Pasta1.xlsx
+++ b/documentos/Pasta1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\results\NAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\NAS_proj\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98746700-7770-44EA-8B52-4196F8D9F568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96317936-D4EE-427E-9141-95D9AE6EA1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03B5F2CE-E60E-489B-8C19-EF9787341301}"/>
+    <workbookView xWindow="3600" yWindow="4335" windowWidth="15330" windowHeight="10770" xr2:uid="{03B5F2CE-E60E-489B-8C19-EF9787341301}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,19 +195,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -225,19 +226,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,7 +556,7 @@
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,6 +744,36 @@
       <c r="W2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="X2" s="3">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>0.85670000000000002</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0.88668832992570601</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0.95833186305317497</v>
+      </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -955,99 +989,99 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.6</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.4</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="1">
         <v>3</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <f t="shared" ref="Q6:R6" si="0">AVERAGE(Q2:Q5)</f>
         <v>4</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>5</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" s="3">
+      <c r="U6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="2">
         <v>0.873</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="2">
         <v>0.95679999999999998</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="2">
         <v>0.87919999999999998</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="2">
         <v>0.95369999999999999</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="2">
         <v>0.87860000000000005</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="2">
         <v>0.95740000000000003</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="2">
         <v>0.86299999999999999</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="2">
         <v>0.95489999999999997</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AF6" s="2">
         <v>0.87380000000000002</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AG6" s="2">
         <v>0.95209999999999995</v>
       </c>
     </row>
